--- a/excels/check.xlsx
+++ b/excels/check.xlsx
@@ -24,25 +24,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>а</t>
-  </si>
-  <si>
-    <t>б</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>q</t>
   </si>
   <si>
     <t>q_h</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>l_in</t>
+  </si>
+  <si>
+    <t>cod_in</t>
+  </si>
+  <si>
+    <t>c_in</t>
+  </si>
+  <si>
+    <t>alkalinity</t>
+  </si>
+  <si>
+    <t>p_po4_in</t>
+  </si>
+  <si>
+    <t>ammonium_ion</t>
+  </si>
+  <si>
+    <t>nitrite_ion</t>
+  </si>
+  <si>
+    <t>nitrate_ion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +71,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -72,8 +99,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -354,71 +384,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="A8:B18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+        <v>52140</v>
+      </c>
+      <c r="B2">
+        <v>2173</v>
+      </c>
+      <c r="C2">
+        <v>21.6</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>223</v>
+      </c>
+      <c r="F2">
+        <v>29</v>
+      </c>
+      <c r="G2">
+        <v>6.2</v>
+      </c>
+      <c r="H2">
+        <v>2.6</v>
+      </c>
+      <c r="I2">
+        <v>42</v>
+      </c>
+      <c r="J2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>